--- a/spreadsheets/Viktor.xlsx
+++ b/spreadsheets/Viktor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F87520B-7012-4A8E-80C3-99CD902C54C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA8CF38-6069-4AC9-9D2E-4812ED6D13BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="3195" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Level 6 you have better all in. You are stronger from 1-3 items, but he eventually outscales you.</t>
   </si>
   <si>
-    <t>Only way you lose if you keep getting hit by her Q. Don’t get stunned by her ult, it's the only way you lose an all in. Prioritze large rods over 2nd or 3rd hexcore.</t>
-  </si>
-  <si>
     <t>Short E trades, play off your E cd. Don't take extended trades. Early hexcore to shove then get large rods, deathcap over 2nd or 3rd hexcore.</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Laning pre 6 is straight forward, try to poke him a lot so he can't get a good reset before 6. Main goal is rush hexcore to stop him from getting easy roams off.</t>
   </si>
   <si>
-    <t>Veigar is useless early, take advantage of that. Play aggro pre 6 and take cleanse. Shove him in then helep your jungler get vision. Banshees if he gets fed.</t>
-  </si>
-  <si>
     <t>Avoid eating Qs in lane. Take teleport as he shoves really easily. Level 6 be careful as he as A LOT of damage. Save your ult to cancel his ult or you lose 1v1. Pretend he's Syndra and dodge.</t>
   </si>
   <si>
@@ -392,6 +386,15 @@
   </si>
   <si>
     <t>https://na.op.gg/summoner/userName=dun</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>Only way you lose if you keep getting hit by her Q. Don’t get stunned by her ult, it's the only way you lose an all in. Prioritize large rods over 2nd or 3rd hexcore.</t>
+  </si>
+  <si>
+    <t>Veigar is useless early, take advantage of that. Play aggro pre 6 and take cleanse. Shove him in then help your jungler get vision. Banshees if he gets fed.</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>67</v>
@@ -920,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -931,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>69</v>
@@ -942,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>70</v>
@@ -953,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -961,31 +964,36 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1002,7 +1010,7 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{5149FFC7-2067-4E0C-ACCF-B4D21426341A}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{7D47A1C8-7954-4B01-9AA8-E727246525DC}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{1FA8E282-1FC4-4C80-B297-04A6085ED001}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{C37EE4BE-4930-4514-A9A3-FD17F9C80440}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{C37EE4BE-4930-4514-A9A3-FD17F9C80440}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{59FBAA8D-F9AF-421D-8211-2F7FBC4AC0AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1016,7 +1024,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>71</v>
@@ -1153,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1164,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1197,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
